--- a/OverSpend.xlsx
+++ b/OverSpend.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,12 +436,104 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Gopal</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Prema</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Rishi</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Srinithi</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Siva</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Sabareesh</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Yuga</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Gnana</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Prithvi</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Pranav</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Allow</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Allow</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Not Allowed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Not Allowed</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Not Allowed</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Not Allowed</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Not Allowed</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Not Allowed</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Not Allowed</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Not Allowed</t>
         </is>
       </c>
     </row>
